--- a/biology/Médecine/Ismakogie/Ismakogie.xlsx
+++ b/biology/Médecine/Ismakogie/Ismakogie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ismakogie (appelée aussi « méthode Anne Seidel ») est une méthode complète de gestion de la posture, développée pour un usage quotidien par l'autrichienne Anne Seidel (1900-1997).
-Cette méthode, qui se veut ludique, a pour ambition d'aider à prévenir les problèmes de l’appareil locomoteur et à redécouvrir la posture et les mouvements naturels, souples et précis de l'enfance[1],[2].
-Cette méthode s'appuie sur des fondements d'anatomie fonctionnelle et se positionne dans le champ de la physiologie[1].
-Le mot « ismakogie » est un néologisme, basée sur la première lettre de l'expression en allemand : Physiologisch ideale Schwingungsrhythmik der beeinflußbaren Muskeln im Alltagsleben nach erkennbaren körpereigenen Ordnungsgesetzen[1].
+Cette méthode, qui se veut ludique, a pour ambition d'aider à prévenir les problèmes de l’appareil locomoteur et à redécouvrir la posture et les mouvements naturels, souples et précis de l'enfance,.
+Cette méthode s'appuie sur des fondements d'anatomie fonctionnelle et se positionne dans le champ de la physiologie.
+Le mot « ismakogie » est un néologisme, basée sur la première lettre de l'expression en allemand : Physiologisch ideale Schwingungsrhythmik der beeinflußbaren Muskeln im Alltagsleben nach erkennbaren körpereigenen Ordnungsgesetzen.
 </t>
         </is>
       </c>
